--- a/GamesResultsUtils/Import/InitialData.xlsx
+++ b/GamesResultsUtils/Import/InitialData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" updateLinks="always" codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="24360" windowHeight="12315" activeTab="3"/>
+    <workbookView xWindow="4440" yWindow="0" windowWidth="24360" windowHeight="12315" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ObjectTypes" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -313,27 +313,12 @@
     <t>Округи</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>Турниры</t>
   </si>
   <si>
     <t>Турнир</t>
   </si>
   <si>
-    <t>EventTeamMember</t>
-  </si>
-  <si>
-    <t>Состав команды в турнире</t>
-  </si>
-  <si>
-    <t>EventTeamMembers</t>
-  </si>
-  <si>
-    <t>Составы команд в турнире</t>
-  </si>
-  <si>
     <t>Oil</t>
   </si>
   <si>
@@ -343,9 +328,6 @@
     <t>Программы масла</t>
   </si>
   <si>
-    <t>Participation</t>
-  </si>
-  <si>
     <t>Результат турнира</t>
   </si>
   <si>
@@ -361,18 +343,6 @@
     <t>Игроки</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Events</t>
-  </si>
-  <si>
-    <t>Ranks</t>
-  </si>
-  <si>
-    <t>Разряды</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -397,9 +367,6 @@
     <t>Члены команд</t>
   </si>
   <si>
-    <t>Participations</t>
-  </si>
-  <si>
     <t>Боулинг</t>
   </si>
   <si>
@@ -415,9 +382,6 @@
     <t>Игрок</t>
   </si>
   <si>
-    <t>Разряд</t>
-  </si>
-  <si>
     <t>/Bowling</t>
   </si>
   <si>
@@ -427,9 +391,6 @@
     <t>/Oil</t>
   </si>
   <si>
-    <t>/Participation</t>
-  </si>
-  <si>
     <t>/Team</t>
   </si>
   <si>
@@ -442,9 +403,6 @@
     <t>PageOils</t>
   </si>
   <si>
-    <t>PageParticipations</t>
-  </si>
-  <si>
     <t>PageTeams</t>
   </si>
   <si>
@@ -454,12 +412,6 @@
     <t>PageCities</t>
   </si>
   <si>
-    <t>/Rank</t>
-  </si>
-  <si>
-    <t>PageRank</t>
-  </si>
-  <si>
     <t>/Upload</t>
   </si>
   <si>
@@ -467,6 +419,45 @@
   </si>
   <si>
     <t>Загрузка данных</t>
+  </si>
+  <si>
+    <t>BaseTournamentResult</t>
+  </si>
+  <si>
+    <t>BaseTournamentResults</t>
+  </si>
+  <si>
+    <t>Tournament</t>
+  </si>
+  <si>
+    <t>Tournaments</t>
+  </si>
+  <si>
+    <t>IndividualResult</t>
+  </si>
+  <si>
+    <t>Индивидуальные результат турнира</t>
+  </si>
+  <si>
+    <t>IndividualResults</t>
+  </si>
+  <si>
+    <t>TeamResult</t>
+  </si>
+  <si>
+    <t>TeamResults</t>
+  </si>
+  <si>
+    <t>Командные результат турнира</t>
+  </si>
+  <si>
+    <t>/BaseTournamentResult</t>
+  </si>
+  <si>
+    <t>PageBaseTournamentResults</t>
+  </si>
+  <si>
+    <t>Результатытурнира</t>
   </si>
 </sst>
 </file>
@@ -857,7 +848,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,16 +1034,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1069,16 +1060,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1095,16 +1086,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1121,16 +1112,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1147,16 +1138,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
         <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1176,7 +1167,7 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
@@ -1203,7 +1194,7 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
@@ -1229,7 +1220,7 @@
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
         <v>93</v>
@@ -1252,16 +1243,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1278,16 +1269,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1304,16 +1295,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1336,11 +1327,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,40 +1391,29 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1449,7 +1429,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,10 +2197,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>37</v>
@@ -2231,66 +2211,66 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>37</v>
@@ -2301,30 +2281,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2304,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>

--- a/GamesResultsUtils/Import/InitialData.xlsx
+++ b/GamesResultsUtils/Import/InitialData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" updateLinks="always" codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="24360" windowHeight="12315" activeTab="4"/>
+    <workbookView xWindow="4440" yWindow="0" windowWidth="24360" windowHeight="12315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ObjectTypes" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>Результатытурнира</t>
+  </si>
+  <si>
+    <t>/PlayersStatistics</t>
+  </si>
+  <si>
+    <t>PagePlayersStatistics</t>
+  </si>
+  <si>
+    <t>Статистика игроков</t>
   </si>
 </sst>
 </file>
@@ -2148,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,6 +2302,20 @@
         <v>130</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2304,7 +2327,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>

--- a/GamesResultsUtils/Import/InitialData.xlsx
+++ b/GamesResultsUtils/Import/InitialData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -467,13 +467,22 @@
   </si>
   <si>
     <t>Статистика игроков</t>
+  </si>
+  <si>
+    <t>/admin/ratings</t>
+  </si>
+  <si>
+    <t>system/AdminRatingsPanel</t>
+  </si>
+  <si>
+    <t>Панель Администратора2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +518,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -551,7 +567,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -572,6 +588,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка 2" xfId="2"/>
@@ -2157,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,6 +2333,20 @@
       </c>
       <c r="D10" s="5" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
